--- a/biology/Zoologie/Boiga_forsteni/Boiga_forsteni.xlsx
+++ b/biology/Zoologie/Boiga_forsteni/Boiga_forsteni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boiga forsteni  est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boiga forsteni  est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Inde (Andhra Pradesh, Bengale-Occidental, Bihar, Gujarat, Kerala, Madhya Pradesh, Maharashtra, Orissa, sud du Rajasthan, Sikkim, Tamil Nadu, Uttar Pradesh et Uttarakhand), au Népal et au Sri Lanka[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Inde (Andhra Pradesh, Bengale-Occidental, Bihar, Gujarat, Kerala, Madhya Pradesh, Maharashtra, Orissa, sud du Rajasthan, Sikkim, Tamil Nadu, Uttar Pradesh et Uttarakhand), au Népal et au Sri Lanka.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Eltio Alegondas Forsten (1811–1843)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Eltio Alegondas Forsten (1811–1843).
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boiga forsteni mesure jusqu'à 200 cm. Il s'agit d'une espèce venimeuse[1]. Son dos est gris brun légèrement violacé. Le dessous de sa tête est jaune, le dessous du reste du corps est gris blanchâtre.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boiga forsteni mesure jusqu'à 200 cm. Il s'agit d'une espèce venimeuse. Son dos est gris brun légèrement violacé. Le dessous de sa tête est jaune, le dessous du reste du corps est gris blanchâtre.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Duméril, Bibron &amp; Duméril, 1854 : Erpétologie générale ou histoire naturelle complète des reptiles. Tome septième. Deuxième partie, p. 781-1536 (texte intégral).</t>
         </is>
